--- a/融地出行/报销202001.xlsx
+++ b/融地出行/报销202001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="68">
   <si>
     <t>i</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,213 @@
   <si>
     <t>石秦锋</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>江铃项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸阳机场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JMC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滴滴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昌北国际机场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八一广场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JMC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机场大巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八一广场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥林匹克花园</t>
+  </si>
+  <si>
+    <t>奥林匹克花园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JMC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滴滴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥林匹克花园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富山工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富山工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥林匹克花园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昌北国际机场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸阳机场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JMC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安软件园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸阳机场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昌北机场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥林匹克花园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JMC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JMC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票暂无由65531735代替</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -236,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -244,16 +451,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -265,15 +481,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -539,6 +747,226 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>299028</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>116609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>603828</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>130464</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="13519728" y="32893000"/>
+          <a:ext cx="10058400" cy="7543800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>173091</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>46089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>477891</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>59944</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7412091" y="31565180"/>
+          <a:ext cx="7543800" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>92182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>106037</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="31611273"/>
+          <a:ext cx="7543800" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>588817</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>128461</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="41771454"/>
+          <a:ext cx="15724908" cy="5982007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>46183</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>646545</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>40719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="46183" y="47694273"/>
+          <a:ext cx="15736453" cy="6032810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -650,6 +1078,132 @@
         <a:xfrm>
           <a:off x="31750" y="10706100"/>
           <a:ext cx="10712450" cy="4847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>59829</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15646400"/>
+          <a:ext cx="10585450" cy="3971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>502078</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>108119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="19583400"/>
+          <a:ext cx="8331628" cy="3283119"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>584600</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>165</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="69850" y="22923500"/>
+          <a:ext cx="7779150" cy="3213265"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -924,13 +1478,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.58203125" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
@@ -945,61 +1506,61 @@
     </row>
     <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="11">
         <v>44214</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="5"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
@@ -1013,32 +1574,654 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="7" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="13">
+        <v>44558</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8">
+        <v>85.36</v>
+      </c>
+      <c r="I8">
+        <v>23438761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="13">
+        <v>44558</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>1385891033</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="13">
+        <v>44558</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>114401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="13">
+        <v>44558</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11">
+        <v>39.53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12">
+        <v>45.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13">
+        <v>38.770000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14">
+        <v>45.93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15">
+        <v>40.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16">
+        <v>33.86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17">
+        <v>38.14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18">
+        <v>45.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19">
+        <v>38.450000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20">
+        <v>44.13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21">
+        <v>35</v>
+      </c>
+      <c r="I21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22">
+        <v>41.38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23">
+        <v>37.340000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24">
+        <v>43.24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25">
+        <v>32.97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26">
+        <v>121.78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>8870356</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29">
+        <v>87.93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30">
+        <v>100</v>
+      </c>
+      <c r="I30">
+        <v>91633916</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <f>SUM(H8:H30)</f>
+        <v>1142.3</v>
       </c>
     </row>
   </sheetData>
@@ -1058,8 +2241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+    <sheetView topLeftCell="A259" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AA290" sqref="AA290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1095,8 +2278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="Q73" sqref="Q73"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="M133" sqref="M133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
